--- a/Estudo_Componente_Geral/Previsão_2017.xlsx
+++ b/Estudo_Componente_Geral/Previsão_2017.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,18 +602,9 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="2">
-        <f>SUM(B2:B13)</f>
-        <v>1532306999.98</v>
-      </c>
-      <c r="C14" s="2">
-        <f>SUM(C2:C13)</f>
-        <v>1558477587</v>
-      </c>
-      <c r="D14" s="3">
-        <f>C14-B14</f>
-        <v>26170587.019999981</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="2"/>
